--- a/IPEDS_International fields.xlsx
+++ b/IPEDS_International fields.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwalker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46619596-152E-461F-9660-E8AA9D30A83E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8085" xr2:uid="{194C63DC-B784-4666-9474-7F42F363C4B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Admission" sheetId="3" r:id="rId2"/>
+    <sheet name="Financial Aid" sheetId="4" r:id="rId3"/>
+    <sheet name="Graduation Rates" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$54</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="337">
   <si>
     <t>SurveyOrder</t>
   </si>
@@ -213,37 +218,7 @@
     <t>Fall Enrollment</t>
   </si>
   <si>
-    <t>EF2015D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total entering class, retention rates, and student-to-faculty ratio: Fall 2015 </t>
-  </si>
-  <si>
-    <t>RRFTEX</t>
-  </si>
-  <si>
-    <t>Exclusions from full-time fall 2014 cohort</t>
-  </si>
-  <si>
     <t>Cont</t>
-  </si>
-  <si>
-    <t>Exclusions are the number of students from the prior year cohort, who left the institution for any of the following reasons: Died or were totally and permanently disabled; Serve in the armed forces (including those called to active duty); Serve with a foreign aid service of the Federal Government (e.g., Peace Corps); or Serve on official church missions.</t>
-  </si>
-  <si>
-    <t>IPEDS, Spring 2016, Fall Enrollment component</t>
-  </si>
-  <si>
-    <t>Retention rates for the 2014 cohort, by attendance status:  Fall 2015</t>
-  </si>
-  <si>
-    <t>Retention rates for the fall 2014 cohort</t>
-  </si>
-  <si>
-    <t>RRPTEX</t>
-  </si>
-  <si>
-    <t>Exclusions from part-time fall 2014 cohort</t>
   </si>
   <si>
     <t>DRVEF2015</t>
@@ -1257,12 +1232,351 @@
 The full-time-equivalent (FTE) enrollment used is the sum of the institutions’ FTE undergraduate enrollment and FTE graduate enrollment (as calculated from or reported on the 12-month Enrollment component) plus the estimated FTE of first-professional students. Undergraduate and graduate FTE are estimated using 12-month instructional activity (credit and/or contact hours)._x000D_
 For more information see the variable description for 12-month full-time equivalent enrollment (info link) under frequently used\ 12-month enrollment.</t>
   </si>
+  <si>
+    <t>Admission test scores</t>
+  </si>
+  <si>
+    <t>Number of first-time degree/certificate-seeking students submitting SAT scores</t>
+  </si>
+  <si>
+    <t>Percent of first-time degree/certificate-seeking students submitting SAT scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of first-time degree/certificate-seeking students submitting ACT scores</t>
+  </si>
+  <si>
+    <t>Percent of first-time degree/certificate-seeking students submitting ACT scores</t>
+  </si>
+  <si>
+    <t>SAT Critical Reading 25th percentile score</t>
+  </si>
+  <si>
+    <t>SAT Critical Reading 75th percentile score</t>
+  </si>
+  <si>
+    <t>SAT Math 25th percentile score</t>
+  </si>
+  <si>
+    <t>SAT Writing 25th percentile score</t>
+  </si>
+  <si>
+    <t>SAT Writing 75th percentile score</t>
+  </si>
+  <si>
+    <t>SAT Math 75th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Composite 25th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Composite 75th percentile score</t>
+  </si>
+  <si>
+    <t>ACT English 25th percentile score</t>
+  </si>
+  <si>
+    <t>ACT English 75th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Math 25th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Math 75th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Writing 25th percentile score</t>
+  </si>
+  <si>
+    <t>ACT Writing 75th percentile score</t>
+  </si>
+  <si>
+    <t>ADMCON7</t>
+  </si>
+  <si>
+    <t>SATNUM</t>
+  </si>
+  <si>
+    <t>SATPCT</t>
+  </si>
+  <si>
+    <t>ACTNUM</t>
+  </si>
+  <si>
+    <t>ACTPCT</t>
+  </si>
+  <si>
+    <t>SATVR25</t>
+  </si>
+  <si>
+    <t>SATVR75</t>
+  </si>
+  <si>
+    <t>SATMT25</t>
+  </si>
+  <si>
+    <t>SATWR25</t>
+  </si>
+  <si>
+    <t>SATWR75</t>
+  </si>
+  <si>
+    <t>SATMT75</t>
+  </si>
+  <si>
+    <t>ACTCM25</t>
+  </si>
+  <si>
+    <t>ACTCM75</t>
+  </si>
+  <si>
+    <t>ACTEN25</t>
+  </si>
+  <si>
+    <t>ACTEN75</t>
+  </si>
+  <si>
+    <t>ACTMT25</t>
+  </si>
+  <si>
+    <t>ACTMT75</t>
+  </si>
+  <si>
+    <t>ACTWR25</t>
+  </si>
+  <si>
+    <t>ACTWR75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Test (Wonderlic, WISC-III, etc.)  </t>
+  </si>
+  <si>
+    <t>ADMCON9</t>
+  </si>
+  <si>
+    <t>STUDENT ADMISSION</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>COLUMN INFO</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>ADMCON5</t>
+  </si>
+  <si>
+    <t>ADM2016</t>
+  </si>
+  <si>
+    <t>INSTNM</t>
+  </si>
+  <si>
+    <t>Institution (entity) name</t>
+  </si>
+  <si>
+    <t>FINANCIAL AID</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (30,001-48,000), 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (48,001-75,000), 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (75,001-110,000), 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, all income levels, 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (0-30,000), 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (30,001-48,000), 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (48,001-75,000), 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (75,001-110,000), 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (110,001 or more), 2014-15</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, all income levels, 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (0-30,000), 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (110,001 or more), 2013-14</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, all income levels, 2012-13</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (0-30,000), 2012-13</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (30,001-48,000), 2012-13</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (48,001-75,000), 2012-13</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (75,001-110,000), 2012-13</t>
+  </si>
+  <si>
+    <t>Number awarded grant and scholarship aid, income level (110,001 or more), 2012-13</t>
+  </si>
+  <si>
+    <t>SFA1415_P2</t>
+  </si>
+  <si>
+    <t>GRN4G21</t>
+  </si>
+  <si>
+    <t>GRN4G31</t>
+  </si>
+  <si>
+    <t>GRN4G41</t>
+  </si>
+  <si>
+    <t>GIS4G2</t>
+  </si>
+  <si>
+    <t>GIS4G12</t>
+  </si>
+  <si>
+    <t>GIS4G22</t>
+  </si>
+  <si>
+    <t>GIS4G32</t>
+  </si>
+  <si>
+    <t>GIS4G42</t>
+  </si>
+  <si>
+    <t>GIS4G52</t>
+  </si>
+  <si>
+    <t>GIS4G1</t>
+  </si>
+  <si>
+    <t>GIS4G11</t>
+  </si>
+  <si>
+    <t>GIS4G21</t>
+  </si>
+  <si>
+    <t>GIS4G31</t>
+  </si>
+  <si>
+    <t>GIS4G41</t>
+  </si>
+  <si>
+    <t>GIS4G51</t>
+  </si>
+  <si>
+    <t>GIS4G0</t>
+  </si>
+  <si>
+    <t>GIS4G10</t>
+  </si>
+  <si>
+    <t>GIS4G20</t>
+  </si>
+  <si>
+    <t>GIS4G30</t>
+  </si>
+  <si>
+    <t>GIS4G40</t>
+  </si>
+  <si>
+    <t>GIS4G50</t>
+  </si>
+  <si>
+    <t>GRN4G2</t>
+  </si>
+  <si>
+    <t>GRN4G12</t>
+  </si>
+  <si>
+    <t>GRN4G22</t>
+  </si>
+  <si>
+    <t>GRN4G32</t>
+  </si>
+  <si>
+    <t>GRN4G42</t>
+  </si>
+  <si>
+    <t>GRN4G52</t>
+  </si>
+  <si>
+    <t>GRN4G1</t>
+  </si>
+  <si>
+    <t>GRN4G11</t>
+  </si>
+  <si>
+    <t>GRN4G51</t>
+  </si>
+  <si>
+    <t>GRN4G0</t>
+  </si>
+  <si>
+    <t>GRN4G10</t>
+  </si>
+  <si>
+    <t>GRN4G20</t>
+  </si>
+  <si>
+    <t>GRN4G30</t>
+  </si>
+  <si>
+    <t>GRN4G40</t>
+  </si>
+  <si>
+    <t>GRN4G50</t>
+  </si>
+  <si>
+    <t>Total number of undergraduates - fall cohort</t>
+  </si>
+  <si>
+    <t>Total number of undergraduates - full-year cohort</t>
+  </si>
+  <si>
+    <t>Total number of undergraduates - financial aid cohort</t>
+  </si>
+  <si>
+    <t>SFA1415_P1</t>
+  </si>
+  <si>
+    <t>SCFA2</t>
+  </si>
+  <si>
+    <t>SCFY2</t>
+  </si>
+  <si>
+    <t>SCUGRAD</t>
+  </si>
+  <si>
+    <t>GRADUATION RATES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,16 +1591,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1294,20 +1634,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,11 +1982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5145FEE1-CBF6-489F-9022-F7F55246E8E3}">
-  <dimension ref="A1:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1635,10 +1995,12 @@
     <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="72.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="150.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="150.140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1679,7 +2041,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1692,7 +2054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1729,7 +2091,7 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1742,7 +2104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1779,7 +2141,7 @@
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1789,7 +2151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -1800,22 +2162,22 @@
         <v>35</v>
       </c>
       <c r="D4" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -1824,22 +2186,22 @@
         <v>6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -1850,22 +2212,22 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
@@ -1874,22 +2236,19 @@
         <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -1903,19 +2262,19 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
@@ -1924,22 +2283,22 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -1953,40 +2312,43 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -2000,43 +2362,40 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -2050,19 +2409,19 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>21</v>
@@ -2071,119 +2430,122 @@
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20</v>
-      </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="G10" s="1">
-        <v>136</v>
+        <v>61729</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="1">
         <v>63</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1">
-        <v>27</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="G11" s="1">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -2191,49 +2553,49 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="1">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="1">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G12" s="1">
-        <v>61729</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>60</v>
       </c>
@@ -2241,49 +2603,49 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1">
         <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G13" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>230</v>
+        <v>36</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="112.5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>60</v>
       </c>
@@ -2291,149 +2653,149 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1">
         <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G14" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>220</v>
+        <v>36</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>233</v>
+        <v>36</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>226</v>
+        <v>36</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="101.25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -2441,25 +2803,25 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>21</v>
@@ -2468,22 +2830,22 @@
         <v>6</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="101.25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -2491,49 +2853,49 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="101.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50</v>
       </c>
@@ -2541,25 +2903,25 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>21</v>
@@ -2568,22 +2930,22 @@
         <v>6</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -2591,49 +2953,49 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="56.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>50</v>
       </c>
@@ -2641,25 +3003,25 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
@@ -2668,22 +3030,22 @@
         <v>6</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>50</v>
       </c>
@@ -2691,49 +3053,49 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>50</v>
       </c>
@@ -2741,49 +3103,49 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="168.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -2791,25 +3153,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>21</v>
@@ -2818,22 +3180,22 @@
         <v>5</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -2841,25 +3203,25 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
@@ -2868,22 +3230,22 @@
         <v>5</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>177</v>
+        <v>36</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -2891,25 +3253,25 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1">
         <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>21</v>
@@ -2918,22 +3280,22 @@
         <v>5</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>185</v>
+        <v>36</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>50</v>
       </c>
@@ -2941,25 +3303,25 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G27" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>21</v>
@@ -2968,22 +3330,22 @@
         <v>5</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>193</v>
+        <v>36</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -2991,25 +3353,25 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1">
         <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>21</v>
@@ -3018,22 +3380,22 @@
         <v>5</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>184</v>
+        <v>36</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>50</v>
       </c>
@@ -3041,25 +3403,25 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>21</v>
@@ -3068,22 +3430,22 @@
         <v>5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>182</v>
+        <v>36</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>50</v>
       </c>
@@ -3091,25 +3453,25 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1">
         <v>83</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G30" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>21</v>
@@ -3118,22 +3480,22 @@
         <v>5</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>183</v>
+        <v>36</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>50</v>
       </c>
@@ -3141,25 +3503,25 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
         <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G31" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>21</v>
@@ -3168,22 +3530,22 @@
         <v>5</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>179</v>
+        <v>36</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>50</v>
       </c>
@@ -3191,25 +3553,25 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
         <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>21</v>
@@ -3218,22 +3580,22 @@
         <v>5</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>50</v>
       </c>
@@ -3241,25 +3603,25 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1">
         <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G33" s="1">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>21</v>
@@ -3268,22 +3630,22 @@
         <v>5</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>187</v>
+        <v>36</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>50</v>
       </c>
@@ -3291,25 +3653,25 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1">
         <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G34" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>21</v>
@@ -3318,22 +3680,22 @@
         <v>5</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>186</v>
+        <v>36</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>50</v>
       </c>
@@ -3341,25 +3703,25 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1">
         <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G35" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>21</v>
@@ -3368,22 +3730,22 @@
         <v>5</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>178</v>
+        <v>36</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>50</v>
       </c>
@@ -3391,25 +3753,25 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1">
         <v>83</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G36" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>21</v>
@@ -3418,22 +3780,22 @@
         <v>5</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>190</v>
+        <v>36</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>50</v>
       </c>
@@ -3441,25 +3803,25 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1">
         <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G37" s="1">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>21</v>
@@ -3468,22 +3830,22 @@
         <v>5</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>181</v>
+        <v>36</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -3491,25 +3853,25 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1">
         <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G38" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>21</v>
@@ -3518,22 +3880,22 @@
         <v>5</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>180</v>
+        <v>36</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>50</v>
       </c>
@@ -3541,25 +3903,25 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1">
         <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>21</v>
@@ -3568,22 +3930,22 @@
         <v>5</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -3591,25 +3953,25 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1">
         <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G40" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>21</v>
@@ -3618,22 +3980,22 @@
         <v>5</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>191</v>
+        <v>36</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -3641,25 +4003,25 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1">
         <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>21</v>
@@ -3668,22 +4030,22 @@
         <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>169</v>
+        <v>36</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>50</v>
       </c>
@@ -3691,25 +4053,25 @@
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="1">
-        <v>9</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>21</v>
@@ -3718,22 +4080,22 @@
         <v>5</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3741,25 +4103,25 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1">
         <v>83</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>21</v>
@@ -3768,22 +4130,22 @@
         <v>5</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>168</v>
+        <v>36</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>50</v>
       </c>
@@ -3791,25 +4153,25 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1">
         <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>21</v>
@@ -3818,22 +4180,22 @@
         <v>5</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>173</v>
+        <v>36</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>50</v>
       </c>
@@ -3841,25 +4203,25 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1">
         <v>83</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G45" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>21</v>
@@ -3868,22 +4230,22 @@
         <v>5</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>192</v>
+        <v>36</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>50</v>
       </c>
@@ -3891,25 +4253,25 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1">
         <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G46" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>21</v>
@@ -3918,22 +4280,22 @@
         <v>5</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>172</v>
+        <v>36</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -3941,25 +4303,25 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
         <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>21</v>
@@ -3968,22 +4330,22 @@
         <v>5</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>171</v>
+        <v>36</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="191.25" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -3991,25 +4353,25 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1">
         <v>83</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>21</v>
@@ -4018,22 +4380,22 @@
         <v>5</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>163</v>
+        <v>36</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -4041,25 +4403,25 @@
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1">
         <v>83</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="1">
-        <v>12</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>21</v>
@@ -4068,22 +4430,22 @@
         <v>5</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>189</v>
+        <v>36</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4091,25 +4453,25 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1">
         <v>83</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G50" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>21</v>
@@ -4118,22 +4480,22 @@
         <v>5</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>166</v>
+        <v>36</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="168.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4141,25 +4503,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1">
         <v>83</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>21</v>
@@ -4168,294 +4530,998 @@
         <v>5</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>174</v>
+        <v>36</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="202.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>188</v>
+        <v>22</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="236.25" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D53" s="1">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="G53" s="1">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K53" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="G54" s="1">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="1">
-        <v>181</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="1">
-        <v>36</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="1">
-        <v>6</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="1">
-        <v>181</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="1">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="1">
-        <v>6</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P54"/>
   <sortState ref="A2:P58">
     <sortCondition ref="C2:C58"/>
     <sortCondition ref="I2:I58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="77" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>